--- a/文档/其他文档/Others/Jobs/核酸检测时间表Test Schedule.xlsx
+++ b/文档/其他文档/Others/Jobs/核酸检测时间表Test Schedule.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eason Code Project\DatasOnTelecom\文档\其他文档\Others\Jobs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Schedule" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Place" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Schedule- Mix" sheetId="6" r:id="rId1"/>
+    <sheet name="Test Schedule- Plan A" sheetId="1" r:id="rId2"/>
+    <sheet name="Test Schedule- Plan B" sheetId="5" r:id="rId3"/>
+    <sheet name="Test Place" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Place'!$A$1:$M$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Test Place'!$A$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="91">
   <si>
     <t>Monday</t>
   </si>
@@ -36,17 +43,10 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Saturday</t>
-  </si>
-  <si>
     <t>Test 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resulf of Test 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>24h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Result of test 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,7 +163,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>72h(Test 3 End)</t>
+    <t>黄浦区体检站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南车站路501号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-15:00（无周末）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫园街道社区卫生服务中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华路1525号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日上午优选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日上午次选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日下班首选（走路）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日下班次选（走路）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日下班（坐车）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result of Test 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result of Test 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72h(Test End)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result of Test 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72h (Test 1 End)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result of Test 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,99 +299,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>72h(Test 2 End)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄浦区体检站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南车站路501号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只周六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:30-10:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:00-15:00（无周末）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:00-12:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:00-17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:00-14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:00-20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:00-11:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:00-16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>距家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>距单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:00-12:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:00-18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:00-19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豫园街道社区卫生服务中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中华路1525号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周日上午优选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周日上午次选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日下班首选（走路）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日下班次选（走路）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日下班（坐车）</t>
+    <t>72h (Test 2 End)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result of Test 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result of Test 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72h (Test 4 End)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saturday (No Drive)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saturday (Drive)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saturday (No Drive)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72h (Test 2 End)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72h (Test 3 End)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result of Test 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72h (Test 4 End)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result of Test 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72h (Test 5 End)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result of Test 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72h (Test 6 End)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +510,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -437,7 +565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,15 +579,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -489,21 +608,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -544,6 +654,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,21 +712,24 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF66FFCC"/>
-      <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -610,7 +771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,7 +806,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -854,363 +1015,691 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="25.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="12">
+      <c r="E27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>0</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+      <c r="B29" s="8"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="B30" s="8"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
         <v>0.125</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="B31" s="8"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="B32" s="8"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
         <v>0.20833333333333301</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="B33" s="8"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
         <v>0.25</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+      <c r="B34" s="8"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="B35" s="8"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+      <c r="B36" s="8"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
         <v>0.375</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+      <c r="B37" s="8"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+      <c r="B38" s="8"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="10">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A42" s="10">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A43" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A44" s="10">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A45" s="10">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="36"/>
+      <c r="F45" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A47" s="9">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A48" s="9">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+    </row>
+    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A49" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="12">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="12">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="12">
-        <v>0.875</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="12">
+      <c r="F49" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="34"/>
+    </row>
+    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A50" s="9">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="12">
+      <c r="B50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="36"/>
+      <c r="F50" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A51" s="9">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1220,6 +1709,1403 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>0</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="10">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A42" s="10">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A43" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A44" s="10">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A45" s="10">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A47" s="9">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="38"/>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A48" s="9">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A49" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+    </row>
+    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A50" s="9">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A51" s="9">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>0</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="10">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A42" s="10">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A43" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A44" s="10">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A45" s="10">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="34"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A47" s="9">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A48" s="9">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+    </row>
+    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A49" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+    </row>
+    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A50" s="9">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="34"/>
+      <c r="G50" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A51" s="9">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="36"/>
+      <c r="E51" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -1242,325 +3128,325 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>130</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>260</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
         <v>430</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+        <v>41</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3">
         <v>630</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="17">
+        <v>700</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="17">
+        <v>780</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="25">
+        <v>990</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1400</v>
+      </c>
+      <c r="D9" s="27">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="B10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="27">
+        <v>770</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="23">
-        <v>700</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
+      <c r="H10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="23">
-        <v>780</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="31">
-        <v>990</v>
-      </c>
-      <c r="D8" s="31">
-        <v>1800</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="33">
-        <v>1400</v>
-      </c>
-      <c r="D9" s="33">
-        <v>1500</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="33">
-        <v>770</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="34"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M10">
@@ -1574,7 +3460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
